--- a/forms/warehouse/inventory_excel_header.xlsx
+++ b/forms/warehouse/inventory_excel_header.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>NO</t>
   </si>
@@ -35,36 +35,48 @@
     <t>STANDARD PRICE</t>
   </si>
   <si>
+    <t>LAST INVENTORY</t>
+  </si>
+  <si>
+    <t>RECEIVE</t>
+  </si>
+  <si>
+    <t>OTHER RECEIVE</t>
+  </si>
+  <si>
+    <t>ISSUE</t>
+  </si>
+  <si>
+    <t>OTHER ISSUE</t>
+  </si>
+  <si>
     <t>THIS INVENTORY</t>
   </si>
   <si>
-    <t>RECEIVE</t>
-  </si>
-  <si>
-    <t>OTHER RECEIVE</t>
-  </si>
-  <si>
-    <t>ISSUE</t>
-  </si>
-  <si>
-    <t>OTHER ISSUE</t>
-  </si>
-  <si>
-    <t>LAST INVENTORY</t>
+    <t>AM3-P2AD//Z3 WW - SONY PLUS CHN LR6 2S WW V3</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>12-2020</t>
   </si>
   <si>
     <t>AM4-P2AD//Z5 WW - SONY PLUS CHN LR03 2S NEW V1</t>
   </si>
   <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>11-2020</t>
+    <t>COMMERCIAL SAMPURU LR6 - COMMERCIAL SAMPURU LR6(BULK)</t>
   </si>
   <si>
     <t>FUMAKILLA BULK LR6-DOM - FUMAKILLA BULK LR6-DOM</t>
   </si>
   <si>
+    <t>LR03(2B)FH-W-FI - FJ HIGH POWER EU LR03 2B</t>
+  </si>
+  <si>
+    <t>LR03(2B)FU-A-FI - FJ UNIVERSAL POWER ASIA LR03 2B</t>
+  </si>
+  <si>
     <t>LR03(2B)FU-W-FI - FJ UNIVERSAL POWER EU LR03 2B</t>
   </si>
   <si>
@@ -77,6 +89,15 @@
     <t>LR03(2S)G PC FI - GOOGLE PC LR03 2S</t>
   </si>
   <si>
+    <t>LR03(2S)G SM FI - GOOGLE SM LR03 2S</t>
+  </si>
+  <si>
+    <t>LR03(2S)I FUMAK - FUMAKILLA V2 LR03 2S</t>
+  </si>
+  <si>
+    <t>LR03(4B)FH-W-FI - FJ HIGH POWER EU LR03 4B</t>
+  </si>
+  <si>
     <t>LR03(4B)FU-TW - FJ UNIVERSAL POWER TW LR03 4B</t>
   </si>
   <si>
@@ -104,9 +125,18 @@
     <t>LR03(GD)2BCX(F) - MAXELL SEVEN LR03 2B</t>
   </si>
   <si>
+    <t>LR03(GD)2PCX(F) - MAXELL V LR03 2S</t>
+  </si>
+  <si>
     <t>LR03(W)XL2BCX(F - MAXELL DX LR03 2B</t>
   </si>
   <si>
+    <t>LR03(W)XL4B+2CX - MAXELL DX LR03 4B+2</t>
+  </si>
+  <si>
+    <t>LR03(W)XL4BCX(F - MAXELL DX LR03 4B</t>
+  </si>
+  <si>
     <t>LR03-4KAUWJ - KAUNET LR03 4S</t>
   </si>
   <si>
@@ -119,9 +149,6 @@
     <t>LR03ENR US G6 - ENERGIZER NEW MAX US LR03 BULK (E7114301)</t>
   </si>
   <si>
-    <t>LR03ENRUSC01SLV - EVEREADY SILVER US LR03 BULK (E7052302)</t>
-  </si>
-  <si>
     <t>LR03FL(2S)JECD - FJ LONGLIFE JEC (DAIKIN) LR03 2S</t>
   </si>
   <si>
@@ -131,6 +158,9 @@
     <t>LR03FL(BK)JECFI - FJ LL JEC (ARKRAY) LR03 BULK</t>
   </si>
   <si>
+    <t>LR03FL(BK)JECFI - FJ LONGLIFE JEC LR03 BULK</t>
+  </si>
+  <si>
     <t>LR03G(2S)JER-FI - FUJITSU G JE LR03 2S</t>
   </si>
   <si>
@@ -143,6 +173,9 @@
     <t>LR03G/2SYED - MITSUBISHI G YED LR03 2S V2</t>
   </si>
   <si>
+    <t>LR03G/2SYEDS - MITSUBISHI G YEDS LR03 2S V2</t>
+  </si>
+  <si>
     <t>LR03G/2SYEDS - MITSUBISHI G YEDS LR03 2S V3</t>
   </si>
   <si>
@@ -158,9 +191,6 @@
     <t>LR03G07(8FFP)U - AMAZON BASICS US LR03 (4SX2)</t>
   </si>
   <si>
-    <t>LR03GD/2BP - MITSUBISHI GD LR03 2BN</t>
-  </si>
-  <si>
     <t>LR03GD/2S - MITSUBISHI GD LR03 2S</t>
   </si>
   <si>
@@ -182,9 +212,24 @@
     <t>LR03RS(2S)JEEFI - FUJITSU R-SPEC JEE LR03 2S</t>
   </si>
   <si>
+    <t>LR03RS(2S)JEESO - FJ R-SPEC JEE (SONY) LR03 2S</t>
+  </si>
+  <si>
     <t>LR03RS-BLKJEEFI - FUJISU R-SPEC JEE LR03 BULK</t>
   </si>
   <si>
+    <t>LR6(2B)FH-W-FI - FJ HIGH POWER EU LR6 2B</t>
+  </si>
+  <si>
+    <t>LR6(2B)FP-A-FI - FJ PREMIUM ASIA LR6 2B</t>
+  </si>
+  <si>
+    <t>LR6(2B)FP-W-FI - FJ PREMIUM EU LR6 2B</t>
+  </si>
+  <si>
+    <t>LR6(2B)FU-A-FI - FJ UNIVERSAL POWER ASIA LR6 2B</t>
+  </si>
+  <si>
     <t>LR6(2B)FU-W-FI - FJ UNIVERSAL POWER EU LR6 2B</t>
   </si>
   <si>
@@ -197,9 +242,18 @@
     <t>LR6(2S)FP-U-FI - FJ PREMIUM USA LR6 2S</t>
   </si>
   <si>
+    <t>LR6(2S)FU-U-FI - FJ UNIVERSAL POWER USA LR6 2S</t>
+  </si>
+  <si>
+    <t>LR6(2S)VAPE-FI - FUMAKILLA LR6 2S</t>
+  </si>
+  <si>
     <t>LR6(48M)FP-A-FI - FJ PREMIUM ASIA LR6 48M (MI)</t>
   </si>
   <si>
+    <t>LR6(4B)FH-W-FI - FJ HIGH POWER EU LR6 4B</t>
+  </si>
+  <si>
     <t>LR6(4B)FU-TW - FJ UNIVERSAL POWER TW LR6 4B</t>
   </si>
   <si>
@@ -224,9 +278,15 @@
     <t>LR6(GD)2BCX(F)B - MAXELL SEVEN LR6 2B</t>
   </si>
   <si>
+    <t>LR6(GD)2PCX(F) - MAXELL V LR6 2S</t>
+  </si>
+  <si>
     <t>LR6(W)XL2BCX(F) - MAXELL DX LR6 2B</t>
   </si>
   <si>
+    <t>LR6(W)XL4B+2CXF - MAXELL DX LR6 4B+2</t>
+  </si>
+  <si>
     <t>LR6-4KAUWJ - KAUNET LR6 4S</t>
   </si>
   <si>
@@ -239,6 +299,9 @@
     <t>LR6ENR US G08E - ENERGIZER NEW MAX US LR6 BULK (E7092501)</t>
   </si>
   <si>
+    <t>LR6ENREUG07COR - ENERGIZER COR EU G07  LR6 BULK</t>
+  </si>
+  <si>
     <t>LR6FL(2S)JEEFI - FJ LONGLIFE JEE LR6 2S</t>
   </si>
   <si>
@@ -270,6 +333,9 @@
   </si>
   <si>
     <t>LR6GD/2SNBC - MITSUBISHI GD LR6 2S NBC</t>
+  </si>
+  <si>
+    <t>LR6GD/4BP - MITSUBISHI GD LR6 4B</t>
   </si>
   <si>
     <t>LR6GD/4S - MITSUBISHI GD LR6 4S</t>
@@ -658,10 +724,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="L75" sqref="L75"/>
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -709,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>77601</v>
+        <v>77590</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -721,25 +787,25 @@
         <v>14</v>
       </c>
       <c r="F2" s="2">
-        <v>0.0838</v>
+        <v>0.1047</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>768000</v>
+        <v>40000</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>979200</v>
+        <v>40000</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>211200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -747,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>73012220</v>
+        <v>77601</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
@@ -759,25 +825,25 @@
         <v>14</v>
       </c>
       <c r="F3" s="2">
-        <v>0.1012</v>
+        <v>0.0838</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>639576</v>
+        <v>921600</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>944136</v>
+        <v>921600</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>304560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -785,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>86350</v>
+        <v>4601</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -797,13 +863,13 @@
         <v>14</v>
       </c>
       <c r="F4" s="2">
-        <v>0.0875</v>
+        <v>0.1008</v>
       </c>
       <c r="G4" s="2">
-        <v>14400</v>
+        <v>10000</v>
       </c>
       <c r="H4" s="2">
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -815,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -823,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>89704</v>
+        <v>73012220</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -835,25 +901,25 @@
         <v>14</v>
       </c>
       <c r="F5" s="2">
-        <v>0.0794</v>
+        <v>0.1012</v>
       </c>
       <c r="G5" s="2">
-        <v>76800</v>
+        <v>231640</v>
       </c>
       <c r="H5" s="2">
-        <v>76800</v>
+        <v>639576</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>365472</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>505744</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -861,7 +927,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>12380</v>
+        <v>85000</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -873,19 +939,19 @@
         <v>14</v>
       </c>
       <c r="F6" s="2">
-        <v>0.0828</v>
+        <v>0.1084</v>
       </c>
       <c r="G6" s="2">
-        <v>256000</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>256000</v>
+        <v>14400</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>14400</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -899,7 +965,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>13200</v>
+        <v>86353</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
@@ -911,19 +977,19 @@
         <v>14</v>
       </c>
       <c r="F7" s="2">
-        <v>0.0828</v>
+        <v>0.0875</v>
       </c>
       <c r="G7" s="2">
-        <v>25600</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>25600</v>
+        <v>11520</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>11520</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -937,7 +1003,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>86555</v>
+        <v>86350</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -949,19 +1015,19 @@
         <v>14</v>
       </c>
       <c r="F8" s="2">
-        <v>0.1175</v>
+        <v>0.0875</v>
       </c>
       <c r="G8" s="2">
-        <v>38400</v>
+        <v>14400</v>
       </c>
       <c r="H8" s="2">
-        <v>38400</v>
+        <v>50400</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>64800</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -975,7 +1041,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>86550</v>
+        <v>89704</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>21</v>
@@ -987,19 +1053,19 @@
         <v>14</v>
       </c>
       <c r="F9" s="2">
-        <v>0.0875</v>
+        <v>0.0794</v>
       </c>
       <c r="G9" s="2">
-        <v>57600</v>
+        <v>76800</v>
       </c>
       <c r="H9" s="2">
-        <v>57600</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>76800</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -1013,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>89945</v>
+        <v>12380</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -1025,19 +1091,19 @@
         <v>14</v>
       </c>
       <c r="F10" s="2">
-        <v>0.0817</v>
+        <v>0.0828</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>256000</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>563200</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>819200</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -1051,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>97580</v>
+        <v>13200</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -1063,19 +1129,19 @@
         <v>14</v>
       </c>
       <c r="F11" s="2">
-        <v>0.0981</v>
+        <v>0.0828</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>25600</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>25600</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>51200</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -1089,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>98390</v>
+        <v>12210</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
@@ -1101,19 +1167,19 @@
         <v>14</v>
       </c>
       <c r="F12" s="2">
-        <v>1.0E-5</v>
+        <v>0.0828</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>51200</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>51200</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -1127,7 +1193,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>12385</v>
+        <v>58991</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>25</v>
@@ -1139,25 +1205,25 @@
         <v>14</v>
       </c>
       <c r="F13" s="2">
-        <v>0.0795</v>
+        <v>0.0827</v>
       </c>
       <c r="G13" s="2">
-        <v>793800</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>859950</v>
+        <v>240000</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>66150</v>
+        <v>120000</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1165,7 +1231,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>13205</v>
+        <v>85050</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -1177,19 +1243,19 @@
         <v>14</v>
       </c>
       <c r="F14" s="2">
-        <v>0.0795</v>
+        <v>0.0995</v>
       </c>
       <c r="G14" s="2">
-        <v>66150</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>66150</v>
+        <v>28800</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -1203,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>12215</v>
+        <v>86555</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
@@ -1215,19 +1281,19 @@
         <v>14</v>
       </c>
       <c r="F15" s="2">
-        <v>0.0795</v>
+        <v>0.1175</v>
       </c>
       <c r="G15" s="2">
-        <v>66150</v>
+        <v>38400</v>
       </c>
       <c r="H15" s="2">
-        <v>66150</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>38400</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -1241,7 +1307,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>23152</v>
+        <v>86550</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
@@ -1253,25 +1319,25 @@
         <v>14</v>
       </c>
       <c r="F16" s="2">
-        <v>0.1</v>
+        <v>0.0875</v>
       </c>
       <c r="G16" s="2">
-        <v>240000</v>
+        <v>57600</v>
       </c>
       <c r="H16" s="2">
-        <v>160000</v>
+        <v>316800</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>259200</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>80000</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1279,7 +1345,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>57281</v>
+        <v>89945</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -1291,25 +1357,25 @@
         <v>14</v>
       </c>
       <c r="F17" s="2">
-        <v>0.11</v>
+        <v>0.0817</v>
       </c>
       <c r="G17" s="2">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>2000</v>
+        <v>76800</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>0</v>
+        <v>76800</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>16000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1317,7 +1383,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>66664</v>
+        <v>97580</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
@@ -1329,19 +1395,19 @@
         <v>14</v>
       </c>
       <c r="F18" s="2">
-        <v>0.0879</v>
+        <v>0.0981</v>
       </c>
       <c r="G18" s="2">
-        <v>168000</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>280000</v>
+        <v>90720</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>112000</v>
+        <v>90720</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -1355,7 +1421,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>28883</v>
+        <v>98390</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
@@ -1367,19 +1433,19 @@
         <v>14</v>
       </c>
       <c r="F19" s="2">
-        <v>0.086</v>
+        <v>0.09</v>
       </c>
       <c r="G19" s="2">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>8000</v>
+        <v>55680</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>0</v>
+        <v>55680</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -1393,7 +1459,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>29013</v>
+        <v>12385</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
@@ -1405,25 +1471,25 @@
         <v>14</v>
       </c>
       <c r="F20" s="2">
-        <v>0.0852</v>
+        <v>0.0795</v>
       </c>
       <c r="G20" s="2">
-        <v>358400</v>
+        <v>793800</v>
       </c>
       <c r="H20" s="2">
-        <v>358400</v>
+        <v>132300</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <v>0</v>
+        <v>793800</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>132300</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1431,7 +1497,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>79252</v>
+        <v>13205</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>33</v>
@@ -1443,25 +1509,25 @@
         <v>14</v>
       </c>
       <c r="F21" s="2">
-        <v>0.0767</v>
+        <v>0.0795</v>
       </c>
       <c r="G21" s="2">
-        <v>12479744</v>
+        <v>66150</v>
       </c>
       <c r="H21" s="2">
-        <v>12555840</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>1978496</v>
+        <v>66150</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1902400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1469,7 +1535,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>15792</v>
+        <v>12215</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>34</v>
@@ -1481,10 +1547,10 @@
         <v>14</v>
       </c>
       <c r="F22" s="2">
-        <v>0.0755</v>
+        <v>0.0795</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>66150</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1493,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2">
-        <v>0</v>
+        <v>66150</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -1507,7 +1573,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>12320</v>
+        <v>23152</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
@@ -1519,25 +1585,25 @@
         <v>14</v>
       </c>
       <c r="F23" s="2">
-        <v>0.0826</v>
+        <v>0.1</v>
       </c>
       <c r="G23" s="2">
-        <v>307200</v>
+        <v>256000</v>
       </c>
       <c r="H23" s="2">
-        <v>76800</v>
+        <v>264000</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>230400</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1545,7 +1611,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>69200</v>
+        <v>21617</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>36</v>
@@ -1557,19 +1623,19 @@
         <v>14</v>
       </c>
       <c r="F24" s="2">
-        <v>0.0818</v>
+        <v>0.0815</v>
       </c>
       <c r="G24" s="2">
-        <v>14100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>14100</v>
+        <v>288000</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>0</v>
+        <v>288000</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -1583,7 +1649,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>72115</v>
+        <v>57281</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>37</v>
@@ -1595,19 +1661,19 @@
         <v>14</v>
       </c>
       <c r="F25" s="2">
-        <v>0.0777</v>
+        <v>0.11</v>
       </c>
       <c r="G25" s="2">
-        <v>152192</v>
+        <v>18000</v>
       </c>
       <c r="H25" s="2">
-        <v>152192</v>
+        <v>400</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>0</v>
+        <v>18400</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -1621,7 +1687,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>57326</v>
+        <v>57301</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>38</v>
@@ -1633,19 +1699,19 @@
         <v>14</v>
       </c>
       <c r="F26" s="2">
-        <v>0.0794</v>
+        <v>0.105</v>
       </c>
       <c r="G26" s="2">
-        <v>115200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>115200</v>
+        <v>144</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -1659,7 +1725,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>93940</v>
+        <v>57291</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
@@ -1671,19 +1737,19 @@
         <v>14</v>
       </c>
       <c r="F27" s="2">
-        <v>0.0763</v>
+        <v>0.108</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -1697,7 +1763,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>23545</v>
+        <v>66664</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>40</v>
@@ -1709,25 +1775,25 @@
         <v>14</v>
       </c>
       <c r="F28" s="2">
-        <v>0.0868</v>
+        <v>0.0879</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>168000</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>56000</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <v>120000</v>
+        <v>224000</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>120000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1735,7 +1801,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>23546</v>
+        <v>28883</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>41</v>
@@ -1747,25 +1813,25 @@
         <v>14</v>
       </c>
       <c r="F29" s="2">
-        <v>0.0887</v>
+        <v>0.086</v>
       </c>
       <c r="G29" s="2">
-        <v>315600</v>
+        <v>8000</v>
       </c>
       <c r="H29" s="2">
-        <v>343200</v>
+        <v>4800</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <v>200400</v>
+        <v>8000</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>172800</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1773,7 +1839,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>23548</v>
+        <v>29013</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
@@ -1785,25 +1851,25 @@
         <v>14</v>
       </c>
       <c r="F30" s="2">
-        <v>0.0859</v>
+        <v>0.0852</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>358400</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>134400</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>14400</v>
+        <v>492800</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <v>14400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1811,7 +1877,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>88845</v>
+        <v>79252</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>43</v>
@@ -1823,25 +1889,25 @@
         <v>14</v>
       </c>
       <c r="F31" s="2">
-        <v>0.0835</v>
+        <v>0.0767</v>
       </c>
       <c r="G31" s="2">
-        <v>8000</v>
+        <v>12337344</v>
       </c>
       <c r="H31" s="2">
-        <v>8000</v>
+        <v>12175360</v>
       </c>
       <c r="I31" s="2">
-        <v>0</v>
+        <v>76096</v>
       </c>
       <c r="J31" s="2">
-        <v>0</v>
+        <v>18643520</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>0</v>
+        <v>5945280</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1849,7 +1915,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>88849</v>
+        <v>12320</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>44</v>
@@ -1861,25 +1927,25 @@
         <v>14</v>
       </c>
       <c r="F32" s="2">
-        <v>0.0835</v>
+        <v>0.0826</v>
       </c>
       <c r="G32" s="2">
-        <v>3830000</v>
+        <v>307200</v>
       </c>
       <c r="H32" s="2">
-        <v>2560000</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
       </c>
       <c r="J32" s="2">
-        <v>340000</v>
+        <v>307200</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
       </c>
       <c r="L32" s="2">
-        <v>1610000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1887,7 +1953,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>88135</v>
+        <v>69200</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>45</v>
@@ -1899,25 +1965,25 @@
         <v>14</v>
       </c>
       <c r="F33" s="2">
-        <v>0.0902</v>
+        <v>0.0818</v>
       </c>
       <c r="G33" s="2">
-        <v>6400</v>
+        <v>15100</v>
       </c>
       <c r="H33" s="2">
-        <v>6400</v>
+        <v>19200</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
       <c r="J33" s="2">
-        <v>0</v>
+        <v>33300</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1925,7 +1991,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>88139</v>
+        <v>72115</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>46</v>
@@ -1937,25 +2003,25 @@
         <v>14</v>
       </c>
       <c r="F34" s="2">
-        <v>0.0902</v>
+        <v>0.0777</v>
       </c>
       <c r="G34" s="2">
-        <v>568800</v>
+        <v>152192</v>
       </c>
       <c r="H34" s="2">
-        <v>469600</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <v>164400</v>
+        <v>152192</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <v>263600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1963,7 +2029,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>30533</v>
+        <v>72119</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>47</v>
@@ -1975,25 +2041,25 @@
         <v>14</v>
       </c>
       <c r="F35" s="2">
-        <v>0.1502</v>
+        <v>0.0779</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>20000</v>
+        <v>24150</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
       <c r="J35" s="2">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2">
         <v>0</v>
       </c>
       <c r="L35" s="2">
-        <v>0</v>
+        <v>24150</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2001,7 +2067,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>30333</v>
+        <v>57326</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>48</v>
@@ -2013,10 +2079,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="2">
-        <v>0.0903</v>
+        <v>0.0794</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>115200</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2025,13 +2091,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <v>48000</v>
+        <v>115200</v>
       </c>
       <c r="K36" s="2">
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <v>48000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2039,7 +2105,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>30463</v>
+        <v>93940</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>49</v>
@@ -2051,19 +2117,19 @@
         <v>14</v>
       </c>
       <c r="F37" s="2">
-        <v>0.0834</v>
+        <v>0.0763</v>
       </c>
       <c r="G37" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>10000</v>
+        <v>330750</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
       </c>
       <c r="J37" s="2">
-        <v>0</v>
+        <v>330750</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
@@ -2077,7 +2143,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>30545</v>
+        <v>23545</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>50</v>
@@ -2089,25 +2155,25 @@
         <v>14</v>
       </c>
       <c r="F38" s="2">
-        <v>0.1189</v>
+        <v>0.0868</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>40000</v>
+        <v>538200</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
       </c>
       <c r="J38" s="2">
-        <v>40000</v>
+        <v>480600</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
       </c>
       <c r="L38" s="2">
-        <v>0</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2115,7 +2181,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>30453</v>
+        <v>23546</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>51</v>
@@ -2127,25 +2193,25 @@
         <v>14</v>
       </c>
       <c r="F39" s="2">
-        <v>0.092</v>
+        <v>0.0887</v>
       </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>315600</v>
       </c>
       <c r="H39" s="2">
-        <v>32000</v>
+        <v>628800</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
       </c>
       <c r="J39" s="2">
-        <v>80000</v>
+        <v>601200</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
       </c>
       <c r="L39" s="2">
-        <v>48000</v>
+        <v>343200</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2153,7 +2219,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>30473</v>
+        <v>23547</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>52</v>
@@ -2165,19 +2231,19 @@
         <v>14</v>
       </c>
       <c r="F40" s="2">
-        <v>0.0852</v>
+        <v>0.0897</v>
       </c>
       <c r="G40" s="2">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>120000</v>
+        <v>60600</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
       </c>
       <c r="J40" s="2">
-        <v>0</v>
+        <v>60600</v>
       </c>
       <c r="K40" s="2">
         <v>0</v>
@@ -2191,7 +2257,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>66240</v>
+        <v>23548</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>53</v>
@@ -2203,13 +2269,13 @@
         <v>14</v>
       </c>
       <c r="F41" s="2">
-        <v>0.0995</v>
+        <v>0.0859</v>
       </c>
       <c r="G41" s="2">
-        <v>25200</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2">
-        <v>25200</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
@@ -2229,7 +2295,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>66230</v>
+        <v>88845</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>54</v>
@@ -2241,25 +2307,25 @@
         <v>14</v>
       </c>
       <c r="F42" s="2">
-        <v>0.0849</v>
+        <v>0.0835</v>
       </c>
       <c r="G42" s="2">
-        <v>4800</v>
+        <v>8000</v>
       </c>
       <c r="H42" s="2">
-        <v>4800</v>
+        <v>328000</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
       </c>
       <c r="J42" s="2">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
       </c>
       <c r="L42" s="2">
-        <v>0</v>
+        <v>296000</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2267,7 +2333,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>66231</v>
+        <v>88849</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>55</v>
@@ -2279,25 +2345,25 @@
         <v>14</v>
       </c>
       <c r="F43" s="2">
-        <v>0.0778</v>
+        <v>0.0835</v>
       </c>
       <c r="G43" s="2">
-        <v>5250</v>
+        <v>3985000</v>
       </c>
       <c r="H43" s="2">
-        <v>5250</v>
+        <v>245000</v>
       </c>
       <c r="I43" s="2">
         <v>0</v>
       </c>
       <c r="J43" s="2">
-        <v>0</v>
+        <v>4120000</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
       </c>
       <c r="L43" s="2">
-        <v>0</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2305,7 +2371,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>86240</v>
+        <v>88135</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>56</v>
@@ -2317,25 +2383,25 @@
         <v>14</v>
       </c>
       <c r="F44" s="2">
-        <v>0.1192</v>
+        <v>0.0902</v>
       </c>
       <c r="G44" s="2">
-        <v>11520</v>
+        <v>32000</v>
       </c>
       <c r="H44" s="2">
-        <v>11520</v>
+        <v>19200</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
       </c>
       <c r="J44" s="2">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
       </c>
       <c r="L44" s="2">
-        <v>0</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2343,7 +2409,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>63290</v>
+        <v>88139</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>57</v>
@@ -2355,25 +2421,25 @@
         <v>14</v>
       </c>
       <c r="F45" s="2">
-        <v>0.1163</v>
+        <v>0.0902</v>
       </c>
       <c r="G45" s="2">
-        <v>0</v>
+        <v>568800</v>
       </c>
       <c r="H45" s="2">
-        <v>0</v>
+        <v>285600</v>
       </c>
       <c r="I45" s="2">
         <v>0</v>
       </c>
       <c r="J45" s="2">
-        <v>0</v>
+        <v>801200</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <v>0</v>
+        <v>53200</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2381,7 +2447,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>90170</v>
+        <v>30333</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>58</v>
@@ -2393,25 +2459,25 @@
         <v>14</v>
       </c>
       <c r="F46" s="2">
-        <v>0.0972</v>
+        <v>0.0903</v>
       </c>
       <c r="G46" s="2">
-        <v>75200</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>55200</v>
+        <v>114000</v>
       </c>
       <c r="I46" s="2">
         <v>0</v>
       </c>
       <c r="J46" s="2">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
       </c>
       <c r="L46" s="2">
-        <v>20000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2419,7 +2485,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>63270</v>
+        <v>30463</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>59</v>
@@ -2431,13 +2497,13 @@
         <v>14</v>
       </c>
       <c r="F47" s="2">
-        <v>0.1216</v>
+        <v>0.0834</v>
       </c>
       <c r="G47" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
@@ -2449,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <v>0</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2457,7 +2523,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>79262</v>
+        <v>30545</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>60</v>
@@ -2469,13 +2535,13 @@
         <v>14</v>
       </c>
       <c r="F48" s="2">
-        <v>0.1208</v>
+        <v>0.1189</v>
       </c>
       <c r="G48" s="2">
-        <v>221184</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>221184</v>
+        <v>40000</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
@@ -2487,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="2">
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2495,7 +2561,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>86305</v>
+        <v>30453</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>61</v>
@@ -2507,19 +2573,19 @@
         <v>14</v>
       </c>
       <c r="F49" s="2">
-        <v>0.1347</v>
+        <v>0.092</v>
       </c>
       <c r="G49" s="2">
         <v>0</v>
       </c>
       <c r="H49" s="2">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
       </c>
       <c r="J49" s="2">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
@@ -2533,7 +2599,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>86300</v>
+        <v>30473</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>62</v>
@@ -2545,25 +2611,25 @@
         <v>14</v>
       </c>
       <c r="F50" s="2">
-        <v>0.1172</v>
+        <v>0.0852</v>
       </c>
       <c r="G50" s="2">
-        <v>163840</v>
+        <v>120000</v>
       </c>
       <c r="H50" s="2">
-        <v>163840</v>
+        <v>274400</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
       </c>
       <c r="J50" s="2">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="K50" s="2">
         <v>0</v>
       </c>
       <c r="L50" s="2">
-        <v>0</v>
+        <v>314400</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2571,7 +2637,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>87605</v>
+        <v>66240</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>63</v>
@@ -2583,19 +2649,19 @@
         <v>14</v>
       </c>
       <c r="F51" s="2">
-        <v>0.1124</v>
+        <v>0.0995</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="H51" s="2">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="I51" s="2">
         <v>0</v>
       </c>
       <c r="J51" s="2">
-        <v>0</v>
+        <v>61200</v>
       </c>
       <c r="K51" s="2">
         <v>0</v>
@@ -2609,7 +2675,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>94980</v>
+        <v>66230</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>64</v>
@@ -2621,19 +2687,19 @@
         <v>14</v>
       </c>
       <c r="F52" s="2">
-        <v>0.1092</v>
+        <v>0.0849</v>
       </c>
       <c r="G52" s="2">
-        <v>18000</v>
+        <v>4800</v>
       </c>
       <c r="H52" s="2">
-        <v>18000</v>
+        <v>9600</v>
       </c>
       <c r="I52" s="2">
         <v>0</v>
       </c>
       <c r="J52" s="2">
-        <v>0</v>
+        <v>14400</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
@@ -2647,7 +2713,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>94990</v>
+        <v>66233</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>65</v>
@@ -2659,19 +2725,19 @@
         <v>14</v>
       </c>
       <c r="F53" s="2">
-        <v>1.0E-5</v>
+        <v>0.0825</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
       </c>
       <c r="H53" s="2">
-        <v>0</v>
+        <v>123600</v>
       </c>
       <c r="I53" s="2">
         <v>0</v>
       </c>
       <c r="J53" s="2">
-        <v>0</v>
+        <v>123600</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
@@ -2685,7 +2751,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>11102</v>
+        <v>66231</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>66</v>
@@ -2697,19 +2763,19 @@
         <v>14</v>
       </c>
       <c r="F54" s="2">
-        <v>0.1036</v>
+        <v>0.0778</v>
       </c>
       <c r="G54" s="2">
-        <v>3253760</v>
+        <v>5250</v>
       </c>
       <c r="H54" s="2">
-        <v>3253760</v>
+        <v>0</v>
       </c>
       <c r="I54" s="2">
         <v>0</v>
       </c>
       <c r="J54" s="2">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
@@ -2723,7 +2789,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>52726</v>
+        <v>84300</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>67</v>
@@ -2735,25 +2801,25 @@
         <v>14</v>
       </c>
       <c r="F55" s="2">
-        <v>0.0989</v>
+        <v>0.133</v>
       </c>
       <c r="G55" s="2">
-        <v>198400</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2">
-        <v>912640</v>
+        <v>11520</v>
       </c>
       <c r="I55" s="2">
         <v>0</v>
       </c>
       <c r="J55" s="2">
-        <v>2261760</v>
+        <v>11520</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
       </c>
       <c r="L55" s="2">
-        <v>1547520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2761,7 +2827,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>23051</v>
+        <v>82283</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>68</v>
@@ -2773,25 +2839,25 @@
         <v>14</v>
       </c>
       <c r="F56" s="2">
-        <v>0.109</v>
+        <v>0.1405</v>
       </c>
       <c r="G56" s="2">
-        <v>240000</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2">
-        <v>220800</v>
+        <v>34560</v>
       </c>
       <c r="I56" s="2">
         <v>0</v>
       </c>
       <c r="J56" s="2">
-        <v>0</v>
+        <v>34560</v>
       </c>
       <c r="K56" s="2">
         <v>0</v>
       </c>
       <c r="L56" s="2">
-        <v>19200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2799,7 +2865,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>57251</v>
+        <v>82280</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>69</v>
@@ -2811,19 +2877,19 @@
         <v>14</v>
       </c>
       <c r="F57" s="2">
-        <v>0.123</v>
+        <v>0.1405</v>
       </c>
       <c r="G57" s="2">
-        <v>19200</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2">
-        <v>19200</v>
+        <v>11520</v>
       </c>
       <c r="I57" s="2">
         <v>0</v>
       </c>
       <c r="J57" s="2">
-        <v>0</v>
+        <v>11520</v>
       </c>
       <c r="K57" s="2">
         <v>0</v>
@@ -2837,7 +2903,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>66654</v>
+        <v>86243</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>70</v>
@@ -2849,19 +2915,19 @@
         <v>14</v>
       </c>
       <c r="F58" s="2">
-        <v>0.1112</v>
+        <v>0.1192</v>
       </c>
       <c r="G58" s="2">
-        <v>259200</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2">
-        <v>432000</v>
+        <v>15360</v>
       </c>
       <c r="I58" s="2">
         <v>0</v>
       </c>
       <c r="J58" s="2">
-        <v>172800</v>
+        <v>15360</v>
       </c>
       <c r="K58" s="2">
         <v>0</v>
@@ -2875,7 +2941,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>28853</v>
+        <v>86240</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>71</v>
@@ -2887,25 +2953,25 @@
         <v>14</v>
       </c>
       <c r="F59" s="2">
-        <v>0.1165</v>
+        <v>0.1192</v>
       </c>
       <c r="G59" s="2">
-        <v>8000</v>
+        <v>11520</v>
       </c>
       <c r="H59" s="2">
-        <v>8000</v>
+        <v>103680</v>
       </c>
       <c r="I59" s="2">
         <v>0</v>
       </c>
       <c r="J59" s="2">
-        <v>0</v>
+        <v>92160</v>
       </c>
       <c r="K59" s="2">
         <v>0</v>
       </c>
       <c r="L59" s="2">
-        <v>0</v>
+        <v>23040</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2913,7 +2979,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>28873</v>
+        <v>63290</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>72</v>
@@ -2925,19 +2991,19 @@
         <v>14</v>
       </c>
       <c r="F60" s="2">
-        <v>0.1068</v>
+        <v>0.1163</v>
       </c>
       <c r="G60" s="2">
-        <v>529200</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2">
-        <v>529200</v>
+        <v>28800</v>
       </c>
       <c r="I60" s="2">
         <v>0</v>
       </c>
       <c r="J60" s="2">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="K60" s="2">
         <v>0</v>
@@ -2951,7 +3017,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>10262</v>
+        <v>90170</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>73</v>
@@ -2963,25 +3029,25 @@
         <v>14</v>
       </c>
       <c r="F61" s="2">
-        <v>0.0975</v>
+        <v>0.0972</v>
       </c>
       <c r="G61" s="2">
-        <v>18173440</v>
+        <v>75200</v>
       </c>
       <c r="H61" s="2">
-        <v>18530560</v>
+        <v>149200</v>
       </c>
       <c r="I61" s="2">
         <v>0</v>
       </c>
       <c r="J61" s="2">
-        <v>1507840</v>
+        <v>224400</v>
       </c>
       <c r="K61" s="2">
         <v>0</v>
       </c>
       <c r="L61" s="2">
-        <v>1150720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2989,7 +3055,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>69190</v>
+        <v>63270</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>74</v>
@@ -3001,19 +3067,19 @@
         <v>14</v>
       </c>
       <c r="F62" s="2">
-        <v>0.1009</v>
+        <v>0.1216</v>
       </c>
       <c r="G62" s="2">
-        <v>12800</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2">
-        <v>12800</v>
+        <v>28800</v>
       </c>
       <c r="I62" s="2">
         <v>0</v>
       </c>
       <c r="J62" s="2">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="K62" s="2">
         <v>0</v>
@@ -3027,7 +3093,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>23501</v>
+        <v>87594</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>75</v>
@@ -3039,19 +3105,19 @@
         <v>14</v>
       </c>
       <c r="F63" s="2">
-        <v>0.1034</v>
+        <v>0.1119</v>
       </c>
       <c r="G63" s="2">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2">
-        <v>300000</v>
+        <v>76800</v>
       </c>
       <c r="I63" s="2">
         <v>0</v>
       </c>
       <c r="J63" s="2">
-        <v>0</v>
+        <v>76800</v>
       </c>
       <c r="K63" s="2">
         <v>0</v>
@@ -3065,7 +3131,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>88914</v>
+        <v>30070</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>76</v>
@@ -3077,25 +3143,25 @@
         <v>14</v>
       </c>
       <c r="F64" s="2">
-        <v>0.1117</v>
+        <v>0.1068</v>
       </c>
       <c r="G64" s="2">
-        <v>786880</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2">
-        <v>776880</v>
+        <v>160000</v>
       </c>
       <c r="I64" s="2">
         <v>0</v>
       </c>
       <c r="J64" s="2">
-        <v>252720</v>
+        <v>160000</v>
       </c>
       <c r="K64" s="2">
         <v>0</v>
       </c>
       <c r="L64" s="2">
-        <v>262720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3103,7 +3169,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>88918</v>
+        <v>79262</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>77</v>
@@ -3115,25 +3181,25 @@
         <v>14</v>
       </c>
       <c r="F65" s="2">
-        <v>0.1117</v>
+        <v>0.1208</v>
       </c>
       <c r="G65" s="2">
-        <v>2028000</v>
+        <v>221184</v>
       </c>
       <c r="H65" s="2">
-        <v>1811680</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2">
         <v>0</v>
       </c>
       <c r="J65" s="2">
-        <v>582400</v>
+        <v>221184</v>
       </c>
       <c r="K65" s="2">
         <v>0</v>
       </c>
       <c r="L65" s="2">
-        <v>798720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3141,7 +3207,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>88864</v>
+        <v>84450</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>78</v>
@@ -3153,19 +3219,19 @@
         <v>14</v>
       </c>
       <c r="F66" s="2">
-        <v>0.1143</v>
+        <v>0.128</v>
       </c>
       <c r="G66" s="2">
-        <v>179712</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2">
-        <v>179712</v>
+        <v>20480</v>
       </c>
       <c r="I66" s="2">
         <v>0</v>
       </c>
       <c r="J66" s="2">
-        <v>0</v>
+        <v>20480</v>
       </c>
       <c r="K66" s="2">
         <v>0</v>
@@ -3179,7 +3245,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>88868</v>
+        <v>86305</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>79</v>
@@ -3191,25 +3257,25 @@
         <v>14</v>
       </c>
       <c r="F67" s="2">
-        <v>0.1081</v>
+        <v>0.1347</v>
       </c>
       <c r="G67" s="2">
-        <v>7820928</v>
+        <v>0</v>
       </c>
       <c r="H67" s="2">
-        <v>6034176</v>
+        <v>46080</v>
       </c>
       <c r="I67" s="2">
         <v>0</v>
       </c>
       <c r="J67" s="2">
-        <v>1617408</v>
+        <v>46080</v>
       </c>
       <c r="K67" s="2">
         <v>0</v>
       </c>
       <c r="L67" s="2">
-        <v>3404160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3217,7 +3283,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>88726</v>
+        <v>86300</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>80</v>
@@ -3229,25 +3295,25 @@
         <v>14</v>
       </c>
       <c r="F68" s="2">
-        <v>0.109</v>
+        <v>0.1172</v>
       </c>
       <c r="G68" s="2">
-        <v>11397888</v>
+        <v>184320</v>
       </c>
       <c r="H68" s="2">
-        <v>8225280</v>
+        <v>184320</v>
       </c>
       <c r="I68" s="2">
         <v>0</v>
       </c>
       <c r="J68" s="2">
-        <v>2467584</v>
+        <v>245760</v>
       </c>
       <c r="K68" s="2">
         <v>0</v>
       </c>
       <c r="L68" s="2">
-        <v>5640192</v>
+        <v>122880</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3255,7 +3321,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>88188</v>
+        <v>87605</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>81</v>
@@ -3267,25 +3333,25 @@
         <v>14</v>
       </c>
       <c r="F69" s="2">
-        <v>0.1188</v>
+        <v>0.1124</v>
       </c>
       <c r="G69" s="2">
-        <v>508688</v>
+        <v>0</v>
       </c>
       <c r="H69" s="2">
-        <v>284544</v>
+        <v>86400</v>
       </c>
       <c r="I69" s="2">
         <v>0</v>
       </c>
       <c r="J69" s="2">
-        <v>30784</v>
+        <v>86400</v>
       </c>
       <c r="K69" s="2">
         <v>0</v>
       </c>
       <c r="L69" s="2">
-        <v>254928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3293,7 +3359,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>21293</v>
+        <v>94980</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>82</v>
@@ -3305,19 +3371,19 @@
         <v>14</v>
       </c>
       <c r="F70" s="2">
-        <v>0.2341</v>
+        <v>0.1092</v>
       </c>
       <c r="G70" s="2">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="H70" s="2">
-        <v>21600</v>
+        <v>64800</v>
       </c>
       <c r="I70" s="2">
         <v>0</v>
       </c>
       <c r="J70" s="2">
-        <v>1600</v>
+        <v>82800</v>
       </c>
       <c r="K70" s="2">
         <v>0</v>
@@ -3331,7 +3397,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>29933</v>
+        <v>94990</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>83</v>
@@ -3343,25 +3409,25 @@
         <v>14</v>
       </c>
       <c r="F71" s="2">
-        <v>0.1143</v>
+        <v>0.0979</v>
       </c>
       <c r="G71" s="2">
-        <v>0</v>
+        <v>15360</v>
       </c>
       <c r="H71" s="2">
-        <v>28800</v>
+        <v>76800</v>
       </c>
       <c r="I71" s="2">
         <v>0</v>
       </c>
       <c r="J71" s="2">
-        <v>57600</v>
+        <v>76800</v>
       </c>
       <c r="K71" s="2">
         <v>0</v>
       </c>
       <c r="L71" s="2">
-        <v>28800</v>
+        <v>15360</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3369,7 +3435,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>30153</v>
+        <v>11102</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>84</v>
@@ -3381,19 +3447,19 @@
         <v>14</v>
       </c>
       <c r="F72" s="2">
-        <v>0.1145</v>
+        <v>0.1036</v>
       </c>
       <c r="G72" s="2">
-        <v>16000</v>
+        <v>3253760</v>
       </c>
       <c r="H72" s="2">
-        <v>16000</v>
+        <v>1269760</v>
       </c>
       <c r="I72" s="2">
         <v>0</v>
       </c>
       <c r="J72" s="2">
-        <v>0</v>
+        <v>4523520</v>
       </c>
       <c r="K72" s="2">
         <v>0</v>
@@ -3407,7 +3473,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>29943</v>
+        <v>52726</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>85</v>
@@ -3419,25 +3485,25 @@
         <v>14</v>
       </c>
       <c r="F73" s="2">
-        <v>0.1125</v>
+        <v>0.0989</v>
       </c>
       <c r="G73" s="2">
         <v>0</v>
       </c>
       <c r="H73" s="2">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="I73" s="2">
         <v>0</v>
       </c>
       <c r="J73" s="2">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="K73" s="2">
         <v>0</v>
       </c>
       <c r="L73" s="2">
-        <v>57600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3445,7 +3511,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>30323</v>
+        <v>23051</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>86</v>
@@ -3457,25 +3523,25 @@
         <v>14</v>
       </c>
       <c r="F74" s="2">
-        <v>0.1068</v>
+        <v>0.109</v>
       </c>
       <c r="G74" s="2">
-        <v>240000</v>
+        <v>326400</v>
       </c>
       <c r="H74" s="2">
-        <v>240000</v>
+        <v>598400</v>
       </c>
       <c r="I74" s="2">
         <v>0</v>
       </c>
       <c r="J74" s="2">
-        <v>0</v>
+        <v>315200</v>
       </c>
       <c r="K74" s="2">
         <v>0</v>
       </c>
       <c r="L74" s="2">
-        <v>0</v>
+        <v>609600</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3483,7 +3549,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>66180</v>
+        <v>21571</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>87</v>
@@ -3495,25 +3561,861 @@
         <v>14</v>
       </c>
       <c r="F75" s="2">
+        <v>0.101</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>77600</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>20000</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <v>57251</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0.123</v>
+      </c>
+      <c r="G76" s="2">
+        <v>19200</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>19200</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2">
+        <v>57271</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0.116</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>144</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>144</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2">
+        <v>66654</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0.1112</v>
+      </c>
+      <c r="G78" s="2">
+        <v>288000</v>
+      </c>
+      <c r="H78" s="2">
+        <v>115200</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2">
+        <v>403200</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
+        <v>28853</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0.1165</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>4000</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2">
+        <v>28873</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0.1068</v>
+      </c>
+      <c r="G80" s="2">
+        <v>528800</v>
+      </c>
+      <c r="H80" s="2">
+        <v>378000</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>504000</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
+        <v>402800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2">
+        <v>10262</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0.0975</v>
+      </c>
+      <c r="G81" s="2">
+        <v>17856000</v>
+      </c>
+      <c r="H81" s="2">
+        <v>25514240</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
+        <v>35632640</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
+        <v>7737600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
+        <v>23563</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0.1041</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>245520</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>245520</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2">
+        <v>69190</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.1009</v>
+      </c>
+      <c r="G83" s="2">
+        <v>12800</v>
+      </c>
+      <c r="H83" s="2">
+        <v>22400</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>35200</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <v>23501</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0.1034</v>
+      </c>
+      <c r="G84" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>300000</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2">
+        <v>88914</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0.1117</v>
+      </c>
+      <c r="G85" s="2">
+        <v>828640</v>
+      </c>
+      <c r="H85" s="2">
+        <v>416520</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>589680</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>655480</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <v>88918</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0.1117</v>
+      </c>
+      <c r="G86" s="2">
+        <v>2046720</v>
+      </c>
+      <c r="H86" s="2">
+        <v>4313920</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
+        <v>4808960</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>1551680</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
+        <v>88864</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0.1143</v>
+      </c>
+      <c r="G87" s="2">
+        <v>179712</v>
+      </c>
+      <c r="H87" s="2">
+        <v>207360</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2">
+        <v>55296</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>331776</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2">
+        <v>88868</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0.1081</v>
+      </c>
+      <c r="G88" s="2">
+        <v>7655040</v>
+      </c>
+      <c r="H88" s="2">
+        <v>3849984</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2">
+        <v>9936000</v>
+      </c>
+      <c r="K88" s="2">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <v>1569024</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2">
+        <v>88726</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.109</v>
+      </c>
+      <c r="G89" s="2">
+        <v>11238912</v>
+      </c>
+      <c r="H89" s="2">
+        <v>6497280</v>
+      </c>
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2">
+        <v>14694912</v>
+      </c>
+      <c r="K89" s="2">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
+        <v>3041280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2">
+        <v>88188</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.1188</v>
+      </c>
+      <c r="G90" s="2">
+        <v>508688</v>
+      </c>
+      <c r="H90" s="2">
+        <v>567840</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2">
+        <v>790608</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
+        <v>285920</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <v>21293</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0.2341</v>
+      </c>
+      <c r="G91" s="2">
+        <v>20000</v>
+      </c>
+      <c r="H91" s="2">
+        <v>21600</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2">
+        <v>41600</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2">
+        <v>29933</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0.1143</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>172800</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2">
+        <v>115200</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2">
+        <v>30153</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0.1145</v>
+      </c>
+      <c r="G93" s="2">
+        <v>16000</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2">
+        <v>8000</v>
+      </c>
+      <c r="K93" s="2">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2">
+        <v>14835</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0.1455</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>80000</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2">
+        <v>80000</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2">
+        <v>29943</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.1125</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>230400</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2">
+        <v>172800</v>
+      </c>
+      <c r="K95" s="2">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2">
+        <v>30323</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0.1068</v>
+      </c>
+      <c r="G96" s="2">
+        <v>240000</v>
+      </c>
+      <c r="H96" s="2">
+        <v>240000</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <v>160000</v>
+      </c>
+      <c r="K96" s="2">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2">
+        <v>66180</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="2">
         <v>0.1096</v>
       </c>
-      <c r="G75" s="2">
-        <v>0</v>
-      </c>
-      <c r="H75" s="2">
-        <v>0</v>
-      </c>
-      <c r="I75" s="2">
-        <v>0</v>
-      </c>
-      <c r="J75" s="2">
-        <v>60000</v>
-      </c>
-      <c r="K75" s="2">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2">
-        <v>60000</v>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>120000</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <v>120000</v>
+      </c>
+      <c r="K97" s="2">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
